--- a/My Sets/_Hack_ Teenage Super Ninja Plumbers (NES)/~Hack~ Teenage Super Ninja Plumbers (NES) - Plan.xlsx
+++ b/My Sets/_Hack_ Teenage Super Ninja Plumbers (NES)/~Hack~ Teenage Super Ninja Plumbers (NES) - Plan.xlsx
@@ -570,9 +570,6 @@
     <t>Firestorm Ninja Vanquisher!</t>
   </si>
   <si>
-    <t>Finish the game completing every level from World 1 to 4 (no warp pipes)</t>
-  </si>
-  <si>
     <t>No Pipe, No Problem!</t>
   </si>
   <si>
@@ -591,12 +588,6 @@
     <t>Kill 3 or more Lakitus on world 4-1 without dying</t>
   </si>
   <si>
-    <t>Kill 13 or more Tiny Turtles (Goombas) on world 1-1 without dying</t>
-  </si>
-  <si>
-    <t>Kill 3 or more Turtle Bros (Hammer Bros) on world 3-1 without dying</t>
-  </si>
-  <si>
     <t>Benevolent Adventurer!</t>
   </si>
   <si>
@@ -990,9 +981,6 @@
     <t>Most enemies killed (shelled enemies need to be knocked out or kicked of the screen).</t>
   </si>
   <si>
-    <t>Kill 10 or more Koopas or Paratroopas on world 2-2 without dying (shelled enemies need to be knocked out or kicked of the screen)</t>
-  </si>
-  <si>
     <t>Missle Dodger!</t>
   </si>
   <si>
@@ -1029,12 +1017,6 @@
     <t>Complete world 1-1 without pressing left</t>
   </si>
   <si>
-    <t>Kill 15 or more grey or red Missles (Cheep Cheeps) on world 2-1 without dying</t>
-  </si>
-  <si>
-    <t>Kill 15 or more Missle Bills (Bullets Bills) on world 3-2 without dying</t>
-  </si>
-  <si>
     <t>The Tortoise and the Ninja!</t>
   </si>
   <si>
@@ -1047,21 +1029,12 @@
     <t>Kill 15 or more Spiny Turtles on world 4-1 without dying</t>
   </si>
   <si>
-    <t>Kill 3 or more Bloopers on world 2-1 without dying (2nd Quest)</t>
-  </si>
-  <si>
-    <t>Kill 7 or more Buzzy Turtles (Buzzy Beetles) on world 1-2 without dying (2nd Quest, shelled enemies need to be knocked out or kicked of the screen)</t>
-  </si>
-  <si>
     <t>Hazard Pay!</t>
   </si>
   <si>
     <t>The Mutant Menace!</t>
   </si>
   <si>
-    <t>Kill 6 or more Koopas or Paratroopas on world 1-2 without dying (shelled enemies need to be knocked out or kicked of the screen)</t>
-  </si>
-  <si>
     <t>Sunken Treasure!</t>
   </si>
   <si>
@@ -1078,6 +1051,33 @@
   </si>
   <si>
     <t>9m55s00ms</t>
+  </si>
+  <si>
+    <t>Kill 6 or more Koopas or Paratroopas on world 1-2 without dying, shelled enemies need to be knocked out or kicked of the screen</t>
+  </si>
+  <si>
+    <t>Kill 10 or more Koopas or Paratroopas on world 2-2 without dying, shelled enemies need to be knocked out or kicked of the screen</t>
+  </si>
+  <si>
+    <t>Kill 3 or more Bloopers on the 2nd Quest world 2-1 without dying</t>
+  </si>
+  <si>
+    <t>Finish the game completing every level from World 1 to 4 without using warp pipes</t>
+  </si>
+  <si>
+    <t>Kill 13 or more Tiny Turtles, also known as Goombas, on world 1-1 without dying</t>
+  </si>
+  <si>
+    <t>Kill 7 or more Buzzy Turtles, also known Buzzy Beetles, on the 2nd Quest of world 1-2 without dying, shelled enemies need to be knocked out or kicked of the screen</t>
+  </si>
+  <si>
+    <t>Kill 15 or more grey or red Missles, also known as Cheep Cheeps, on world 2-1 without dying</t>
+  </si>
+  <si>
+    <t>Kill 3 or more Turtle Bros, also known as Hammer Bros, on world 3-1 without dying</t>
+  </si>
+  <si>
+    <t>Kill 15 or more Missle Bills, also known as Bullets Bills, on world 3-2 without dying</t>
   </si>
 </sst>
 </file>
@@ -1438,8 +1438,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="E31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,7 +1661,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>12</v>
@@ -1671,7 +1671,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G10" s="5"/>
     </row>
@@ -1705,7 +1705,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>12</v>
@@ -1749,7 +1749,7 @@
         <v>31</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>13</v>
@@ -1947,7 +1947,7 @@
         <v>33</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>12</v>
@@ -1957,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1969,7 +1969,7 @@
         <v>33</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>12</v>
@@ -1979,10 +1979,10 @@
         <v>5</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1993,7 +1993,7 @@
         <v>33</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>10</v>
@@ -2015,7 +2015,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>13</v>
@@ -2037,7 +2037,7 @@
         <v>33</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>13</v>
@@ -2047,7 +2047,7 @@
         <v>10</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -2059,7 +2059,7 @@
         <v>33</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>13</v>
@@ -2069,7 +2069,7 @@
         <v>10</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -2081,7 +2081,7 @@
         <v>33</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>13</v>
@@ -2091,7 +2091,7 @@
         <v>10</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G29" s="5"/>
     </row>
@@ -2103,7 +2103,7 @@
         <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>13</v>
@@ -2113,10 +2113,10 @@
         <v>10</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2127,7 +2127,7 @@
         <v>33</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>13</v>
@@ -2149,7 +2149,7 @@
         <v>33</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>13</v>
@@ -2159,7 +2159,7 @@
         <v>10</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="G32" s="5"/>
     </row>
@@ -2171,7 +2171,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>14</v>
@@ -2181,10 +2181,10 @@
         <v>25</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>177</v>
+        <v>341</v>
       </c>
       <c r="G33" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2195,7 +2195,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>14</v>
@@ -2205,10 +2205,10 @@
         <v>25</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2305,7 +2305,7 @@
         <v>33</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>13</v>
@@ -2327,7 +2327,7 @@
         <v>33</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>14</v>
@@ -2349,7 +2349,7 @@
         <v>33</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>14</v>
@@ -2370,7 +2370,7 @@
         <v>33</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>14</v>
@@ -2391,7 +2391,7 @@
         <v>36</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>12</v>
@@ -2401,7 +2401,7 @@
         <v>5</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>184</v>
+        <v>342</v>
       </c>
       <c r="G43" s="5"/>
     </row>
@@ -2413,7 +2413,7 @@
         <v>36</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>12</v>
@@ -2423,7 +2423,7 @@
         <v>5</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G44" s="5"/>
     </row>
@@ -2435,7 +2435,7 @@
         <v>36</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>13</v>
@@ -2445,7 +2445,7 @@
         <v>10</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="G45" s="5"/>
     </row>
@@ -2457,7 +2457,7 @@
         <v>36</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>12</v>
@@ -2467,7 +2467,7 @@
         <v>5</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="G46" s="5"/>
     </row>
@@ -2479,7 +2479,7 @@
         <v>36</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>13</v>
@@ -2489,7 +2489,7 @@
         <v>10</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G47" s="5"/>
     </row>
@@ -2501,7 +2501,7 @@
         <v>36</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>12</v>
@@ -2511,7 +2511,7 @@
         <v>5</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="G48" s="5"/>
     </row>
@@ -2523,7 +2523,7 @@
         <v>36</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>13</v>
@@ -2533,7 +2533,7 @@
         <v>10</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>185</v>
+        <v>345</v>
       </c>
       <c r="G49" s="5"/>
     </row>
@@ -2545,7 +2545,7 @@
         <v>36</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>12</v>
@@ -2555,7 +2555,7 @@
         <v>5</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="G50" s="5"/>
     </row>
@@ -2567,7 +2567,7 @@
         <v>36</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>12</v>
@@ -2577,7 +2577,7 @@
         <v>5</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G51" s="5"/>
     </row>
@@ -2589,7 +2589,7 @@
         <v>36</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>12</v>
@@ -2599,7 +2599,7 @@
         <v>5</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G52" s="5"/>
     </row>
@@ -2611,7 +2611,7 @@
         <v>36</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>13</v>
@@ -2621,7 +2621,7 @@
         <v>10</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="G53" s="5"/>
     </row>
@@ -3639,7 +3639,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>12</v>
@@ -3661,7 +3661,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>13</v>
@@ -3683,7 +3683,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>13</v>
@@ -3705,7 +3705,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>14</v>
@@ -3727,7 +3727,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>14</v>
@@ -4116,22 +4116,22 @@
     </row>
     <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G2" s="7" t="b">
         <v>1</v>
@@ -4139,22 +4139,22 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="G3" s="7" t="b">
         <v>1</v>
@@ -4162,22 +4162,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G4" s="7" t="b">
         <v>1</v>
@@ -4185,22 +4185,22 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="b">
         <v>1</v>
@@ -4208,22 +4208,22 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G6" s="7" t="b">
         <v>1</v>
@@ -4231,22 +4231,22 @@
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G7" s="7" t="b">
         <v>1</v>
@@ -4254,22 +4254,22 @@
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G8" s="7" t="b">
         <v>1</v>
@@ -4277,22 +4277,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G9" s="7" t="b">
         <v>1</v>
@@ -4300,22 +4300,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>274</v>
-      </c>
       <c r="E10" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G10" s="7" t="b">
         <v>1</v>
@@ -4323,22 +4323,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>275</v>
-      </c>
       <c r="E11" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="b">
         <v>1</v>
@@ -4346,22 +4346,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G12" s="7" t="b">
         <v>1</v>
@@ -4369,22 +4369,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="b">
         <v>1</v>
@@ -4392,22 +4392,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G14" s="7" t="b">
         <v>1</v>
@@ -4415,22 +4415,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G15" s="7" t="b">
         <v>1</v>
@@ -4438,22 +4438,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G16" s="7" t="b">
         <v>1</v>
@@ -4461,22 +4461,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="b">
         <v>1</v>
@@ -4484,22 +4484,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G18" s="7" t="b">
         <v>1</v>
@@ -4507,22 +4507,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G19" s="7" t="b">
         <v>1</v>
@@ -4530,22 +4530,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G20" s="7" t="b">
         <v>1</v>
@@ -4553,22 +4553,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G21" s="7" t="b">
         <v>1</v>
@@ -4576,22 +4576,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G22" s="7" t="b">
         <v>1</v>
@@ -4599,22 +4599,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G23" s="7" t="b">
         <v>1</v>
@@ -4622,22 +4622,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G24" s="7" t="b">
         <v>1</v>
@@ -4645,22 +4645,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G25" s="7" t="b">
         <v>1</v>
@@ -4668,19 +4668,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="E26" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F26" t="s">
         <v>6</v>
@@ -6081,7 +6081,7 @@
         <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G1" t="s">
         <v>27</v>
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B33" s="7" t="str">
         <f>Achievements!F33</f>
-        <v>Finish the game completing every level from World 1 to 4 (no warp pipes)</v>
+        <v>Finish the game completing every level from World 1 to 4 without using warp pipes</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>20</v>
@@ -7286,7 +7286,7 @@
       </c>
       <c r="B43" s="7" t="str">
         <f>Achievements!F43</f>
-        <v>Kill 13 or more Tiny Turtles (Goombas) on world 1-1 without dying</v>
+        <v>Kill 13 or more Tiny Turtles, also known as Goombas, on world 1-1 without dying</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>20</v>
@@ -7315,7 +7315,7 @@
       </c>
       <c r="B44" s="7" t="str">
         <f>Achievements!F44</f>
-        <v>Kill 6 or more Koopas or Paratroopas on world 1-2 without dying (shelled enemies need to be knocked out or kicked of the screen)</v>
+        <v>Kill 6 or more Koopas or Paratroopas on world 1-2 without dying, shelled enemies need to be knocked out or kicked of the screen</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>20</v>
@@ -7344,7 +7344,7 @@
       </c>
       <c r="B45" s="7" t="str">
         <f>Achievements!F45</f>
-        <v>Kill 7 or more Buzzy Turtles (Buzzy Beetles) on world 1-2 without dying (2nd Quest, shelled enemies need to be knocked out or kicked of the screen)</v>
+        <v>Kill 7 or more Buzzy Turtles, also known Buzzy Beetles, on the 2nd Quest of world 1-2 without dying, shelled enemies need to be knocked out or kicked of the screen</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>20</v>
@@ -7373,7 +7373,7 @@
       </c>
       <c r="B46" s="7" t="str">
         <f>Achievements!F46</f>
-        <v>Kill 15 or more grey or red Missles (Cheep Cheeps) on world 2-1 without dying</v>
+        <v>Kill 15 or more grey or red Missles, also known as Cheep Cheeps, on world 2-1 without dying</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>20</v>
@@ -7402,7 +7402,7 @@
       </c>
       <c r="B47" s="7" t="str">
         <f>Achievements!F47</f>
-        <v>Kill 3 or more Bloopers on world 2-1 without dying (2nd Quest)</v>
+        <v>Kill 3 or more Bloopers on the 2nd Quest world 2-1 without dying</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>20</v>
@@ -7431,7 +7431,7 @@
       </c>
       <c r="B48" s="7" t="str">
         <f>Achievements!F48</f>
-        <v>Kill 10 or more Koopas or Paratroopas on world 2-2 without dying (shelled enemies need to be knocked out or kicked of the screen)</v>
+        <v>Kill 10 or more Koopas or Paratroopas on world 2-2 without dying, shelled enemies need to be knocked out or kicked of the screen</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>20</v>
@@ -7460,7 +7460,7 @@
       </c>
       <c r="B49" s="7" t="str">
         <f>Achievements!F49</f>
-        <v>Kill 3 or more Turtle Bros (Hammer Bros) on world 3-1 without dying</v>
+        <v>Kill 3 or more Turtle Bros, also known as Hammer Bros, on world 3-1 without dying</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>20</v>
@@ -7489,7 +7489,7 @@
       </c>
       <c r="B50" s="7" t="str">
         <f>Achievements!F50</f>
-        <v>Kill 15 or more Missle Bills (Bullets Bills) on world 3-2 without dying</v>
+        <v>Kill 15 or more Missle Bills, also known as Bullets Bills, on world 3-2 without dying</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>20</v>
@@ -7851,7 +7851,7 @@
     <row r="34" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("No Pipe, No Problem!","Finish the game completing every level from World 1 to 4 (no warp pipes)", 25, trigger)</v>
+        <v>achievement("No Pipe, No Problem!","Finish the game completing every level from World 1 to 4 without using warp pipes", 25, trigger)</v>
       </c>
     </row>
     <row r="35" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -7911,49 +7911,49 @@
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Reptilian Rampage!","Kill 13 or more Tiny Turtles (Goombas) on world 1-1 without dying", 5, trigger)</v>
+        <v>achievement("Reptilian Rampage!","Kill 13 or more Tiny Turtles, also known as Goombas, on world 1-1 without dying", 5, trigger)</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("The Mutant Menace!","Kill 6 or more Koopas or Paratroopas on world 1-2 without dying (shelled enemies need to be knocked out or kicked of the screen)", 5, trigger)</v>
+        <v>achievement("The Mutant Menace!","Kill 6 or more Koopas or Paratroopas on world 1-2 without dying, shelled enemies need to be knocked out or kicked of the screen", 5, trigger)</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Buzzy Beetle Bane!","Kill 7 or more Buzzy Turtles (Buzzy Beetles) on world 1-2 without dying (2nd Quest, shelled enemies need to be knocked out or kicked of the screen)", 10, trigger)</v>
+        <v>achievement("Buzzy Beetle Bane!","Kill 7 or more Buzzy Turtles, also known Buzzy Beetles, on the 2nd Quest of world 1-2 without dying, shelled enemies need to be knocked out or kicked of the screen", 10, trigger)</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Dam Demolition Diffuser!","Kill 15 or more grey or red Missles (Cheep Cheeps) on world 2-1 without dying", 5, trigger)</v>
+        <v>achievement("Dam Demolition Diffuser!","Kill 15 or more grey or red Missles, also known as Cheep Cheeps, on world 2-1 without dying", 5, trigger)</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Blooper Buster!","Kill 3 or more Bloopers on world 2-1 without dying (2nd Quest)", 10, trigger)</v>
+        <v>achievement("Blooper Buster!","Kill 3 or more Bloopers on the 2nd Quest world 2-1 without dying", 10, trigger)</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Shell Slaughterer!","Kill 10 or more Koopas or Paratroopas on world 2-2 without dying (shelled enemies need to be knocked out or kicked of the screen)", 5, trigger)</v>
+        <v>achievement("Shell Slaughterer!","Kill 10 or more Koopas or Paratroopas on world 2-2 without dying, shelled enemies need to be knocked out or kicked of the screen", 5, trigger)</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Turtle Bro Terminator!","Kill 3 or more Turtle Bros (Hammer Bros) on world 3-1 without dying", 10, trigger)</v>
+        <v>achievement("Turtle Bro Terminator!","Kill 3 or more Turtle Bros, also known as Hammer Bros, on world 3-1 without dying", 10, trigger)</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Missile Bill Massacre!","Kill 15 or more Missle Bills (Bullets Bills) on world 3-2 without dying", 5, trigger)</v>
+        <v>achievement("Missile Bill Massacre!","Kill 15 or more Missle Bills, also known as Bullets Bills, on world 3-2 without dying", 5, trigger)</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
